--- a/Libraries/Vehicle/Body/Sedan/sm_car_data_BodyGeometry_Sedan.xlsx
+++ b/Libraries/Vehicle/Body/Sedan/sm_car_data_BodyGeometry_Sedan.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Body\Sedan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4A5CB5-2789-4B96-99E0-8B3D8CC914DC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DA7F7F-1D67-4E35-8816-63467FE64D15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3552" yWindow="1788" windowWidth="13296" windowHeight="9408" xr2:uid="{06440896-8E0F-4240-830D-6ADD843B9DCF}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11430" xr2:uid="{06440896-8E0F-4240-830D-6ADD843B9DCF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sedan_Scalable" sheetId="1" r:id="rId1"/>
+    <sheet name="Sedan_HambaLG" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -87,7 +89,7 @@
     <t>sOffset</t>
   </si>
   <si>
-    <t>Sedan_Scalable</t>
+    <t>Sedan_HambaLG</t>
   </si>
 </sst>
 </file>
@@ -513,25 +515,25 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -551,7 +553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -565,7 +567,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -579,7 +581,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -594,7 +596,7 @@
       </c>
       <c r="L4" s="13"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -614,7 +616,7 @@
       </c>
       <c r="L5" s="13"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -630,7 +632,7 @@
       </c>
       <c r="L6" s="13"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -646,7 +648,7 @@
       </c>
       <c r="L7" s="13"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -662,7 +664,7 @@
       </c>
       <c r="L8" s="13"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -682,7 +684,7 @@
       </c>
       <c r="L9" s="13"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>15</v>
       </c>

--- a/Libraries/Vehicle/Body/Sedan/sm_car_data_BodyGeometry_Sedan.xlsx
+++ b/Libraries/Vehicle/Body/Sedan/sm_car_data_BodyGeometry_Sedan.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Body\Sedan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DA7F7F-1D67-4E35-8816-63467FE64D15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AE36AD-1C8D-4DEF-B25F-B8313E0FBDED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11430" xr2:uid="{06440896-8E0F-4240-830D-6ADD843B9DCF}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11430" activeTab="1" xr2:uid="{06440896-8E0F-4240-830D-6ADD843B9DCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sedan_HambaLG" sheetId="1" r:id="rId1"/>
+    <sheet name="FSAE_Achilles" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="20">
   <si>
     <t>Units</t>
   </si>
@@ -90,6 +91,9 @@
   </si>
   <si>
     <t>Sedan_HambaLG</t>
+  </si>
+  <si>
+    <t>FSAE_Achilles</t>
   </si>
 </sst>
 </file>
@@ -514,6 +518,209 @@
   </sheetPr>
   <dimension ref="A1:L10"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="13"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0</v>
+      </c>
+      <c r="G5" s="15">
+        <v>0</v>
+      </c>
+      <c r="H5" s="15">
+        <v>0.32250000000000001</v>
+      </c>
+      <c r="L5" s="13"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="13"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="L7" s="13"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="L8" s="13"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="H9" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="L9" s="13"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="16">
+        <v>1</v>
+      </c>
+      <c r="G10" s="16">
+        <v>1</v>
+      </c>
+      <c r="H10" s="16">
+        <v>1</v>
+      </c>
+      <c r="L10" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6247D35C-52BF-43DD-A916-4B6ACA453410}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:L10"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
@@ -578,7 +785,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -628,7 +835,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="L6" s="13"/>
     </row>

--- a/Libraries/Vehicle/Body/Sedan/sm_car_data_BodyGeometry_Sedan.xlsx
+++ b/Libraries/Vehicle/Body/Sedan/sm_car_data_BodyGeometry_Sedan.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Body\Sedan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Body\Sedan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AE36AD-1C8D-4DEF-B25F-B8313E0FBDED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66B5B58-CCF7-4FA4-8279-640D95650D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11430" activeTab="1" xr2:uid="{06440896-8E0F-4240-830D-6ADD843B9DCF}"/>
+    <workbookView xWindow="16935" yWindow="2160" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{06440896-8E0F-4240-830D-6ADD843B9DCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sedan_HambaLG" sheetId="1" r:id="rId1"/>
-    <sheet name="FSAE_Achilles" sheetId="2" r:id="rId2"/>
+    <sheet name="Sedan_Hamba" sheetId="3" r:id="rId2"/>
+    <sheet name="FSAE_Achilles" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="23">
   <si>
     <t>Units</t>
   </si>
@@ -94,6 +95,15 @@
   </si>
   <si>
     <t>FSAE_Achilles</t>
+  </si>
+  <si>
+    <t>Sedan_Hamba</t>
+  </si>
+  <si>
+    <t>sWall2Wall</t>
+  </si>
+  <si>
+    <t>For calculating cornering radius wall-to-wall</t>
   </si>
 </sst>
 </file>
@@ -158,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -167,19 +177,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -189,13 +196,12 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -217,9 +223,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -257,7 +263,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -363,7 +369,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -505,7 +511,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -516,19 +522,19 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="15" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
@@ -537,7 +543,7 @@
     <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -557,156 +563,171 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="13"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
       <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="13">
         <v>0</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="13">
         <v>0</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="13">
         <v>0.32250000000000001</v>
       </c>
-      <c r="L5" s="13"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
       <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15">
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13">
         <v>0.5</v>
       </c>
-      <c r="L6" s="13"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
       <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15">
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13">
         <v>0.05</v>
       </c>
-      <c r="L7" s="13"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
       <c r="D8" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16">
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14">
         <v>0.05</v>
       </c>
-      <c r="L8" s="13"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
       <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="13">
         <v>0.2</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="13">
         <v>0.4</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="13">
         <v>0.6</v>
       </c>
-      <c r="L9" s="13"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
       <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="14">
         <v>1</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="14">
         <v>1</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="14">
         <v>1</v>
       </c>
-      <c r="L10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11">
+        <v>0.76</v>
+      </c>
+      <c r="G11">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0.35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -715,23 +736,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6247D35C-52BF-43DD-A916-4B6ACA453410}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA04610-4934-4DA9-B404-20165005FCFA}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="15" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
@@ -740,7 +761,7 @@
     <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -760,156 +781,389 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="13"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
       <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="13">
         <v>0</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="13">
         <v>0</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="13">
         <v>0.32250000000000001</v>
       </c>
-      <c r="L5" s="13"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
       <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="L6" s="13"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
       <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15">
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13">
         <v>0.05</v>
       </c>
-      <c r="L7" s="13"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
       <c r="D8" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16">
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14">
         <v>0.05</v>
       </c>
-      <c r="L8" s="13"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
       <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="13">
         <v>0.2</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="13">
         <v>0.4</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="13">
         <v>0.6</v>
       </c>
-      <c r="L9" s="13"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
       <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="14">
         <v>1</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="14">
         <v>1</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="14">
         <v>1</v>
       </c>
-      <c r="L10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="G11">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0.35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6247D35C-52BF-43DD-A916-4B6ACA453410}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0.32250000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="14">
+        <v>1</v>
+      </c>
+      <c r="G10" s="14">
+        <v>1</v>
+      </c>
+      <c r="H10" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11">
+        <v>0.87</v>
+      </c>
+      <c r="G11">
+        <v>0.72</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0.35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
